--- a/Document/DataType.xlsx
+++ b/Document/DataType.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B2A51C26-CAC5-4426-9C57-D6B6ADCC2556}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BB171F2A-4ED3-4AD8-8B7D-CBE5B2EC7284}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1051,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O63" sqref="O63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835D8F6E-2DD0-4941-8AB5-CFAD2B6B5887}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Document/DataType.xlsx
+++ b/Document/DataType.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BB171F2A-4ED3-4AD8-8B7D-CBE5B2EC7284}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BB46DBA7-53FD-44DA-B92D-05F191038A90}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>DataType</t>
   </si>
@@ -75,13 +75,22 @@
   </si>
   <si>
     <t>增加或者减少的SubItem的数量</t>
+  </si>
+  <si>
+    <t>输出</t>
+  </si>
+  <si>
+    <t>输入</t>
+  </si>
+  <si>
+    <t>cmd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,8 +112,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,8 +137,14 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -154,13 +176,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
@@ -170,6 +203,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1051,7 +1087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="O63" sqref="O63"/>
     </sheetView>
   </sheetViews>
@@ -1064,18 +1100,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835D8F6E-2DD0-4941-8AB5-CFAD2B6B5887}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="42" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -1087,7 +1123,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -1103,7 +1139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1121,7 +1157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1138,8 +1174,11 @@
       <c r="F4" s="1">
         <v>8</v>
       </c>
+      <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1156,8 +1195,11 @@
       <c r="F5" s="1">
         <v>8</v>
       </c>
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1174,8 +1216,11 @@
       <c r="F6" s="1">
         <v>8</v>
       </c>
+      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1193,7 +1238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1211,7 +1256,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1229,7 +1274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1247,7 +1292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1264,8 +1309,11 @@
       <c r="F11" s="1">
         <v>32</v>
       </c>
+      <c r="G11" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1281,6 +1329,22 @@
       </c>
       <c r="F12" s="1">
         <v>32</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="7">
+        <v>16</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
